--- a/excel2text/excel2text/bin/Debug/netcoreapp3.1/bin/Book1.xlsx
+++ b/excel2text/excel2text/bin/Debug/netcoreapp3.1/bin/Book1.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haruka\source\repos\excel_to_text\excel2text\excel2text\bin\Debug\netcoreapp3.1\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCAA5C9-4EAD-4E9E-98A6-6FA8B152047A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4463434-E17A-489C-837A-AB8DE15C7170}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15034" xr2:uid="{03FA6968-E1FF-4486-B0C9-74D276B9F3D0}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15034" activeTab="1" xr2:uid="{03FA6968-E1FF-4486-B0C9-74D276B9F3D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sample Sheet" sheetId="5" r:id="rId2"/>
+    <sheet name="Sample Sheet&lt;&gt;.~!@#$%^&amp;()_+" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="aaa">Sheet1!$B$2</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Hello World!!</t>
   </si>
@@ -211,6 +211,11 @@
       <t>c</t>
     </r>
     <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Hello 
+World!!</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -262,11 +267,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -585,15 +593,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7525912-583A-4D9A-91FA-DAE73ED165DE}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.7109375" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:6" ht="36.9" x14ac:dyDescent="0.65">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -609,7 +617,8 @@
       </c>
       <c r="F1" t="str">
         <f>A1&amp;B1&amp;C1&amp;D1&amp;E1</f>
-        <v>Hello World!!aaaa</v>
+        <v>Hello 
+World!!aaaa</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.65">
@@ -657,7 +666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <cols>
